--- a/src/test/resources/xlsx/dynamic_column_complex-head.xlsx
+++ b/src/test/resources/xlsx/dynamic_column_complex-head.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA_Projects\easyexcel-extend\src\main\resources\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEA_Projects\easyexcel-extend\src\test\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE31D1B-C08B-4FBA-8C66-FB4354C8725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E569CF75-DABE-413F-8A77-D612FC3AF20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="990" windowWidth="25170" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32070" yWindow="3435" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,22 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dy_1_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dy_2_a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dy_1_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dy_2_b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dy1a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,6 +104,22 @@
   </si>
   <si>
     <t>my_title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy_打开_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy_打开_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy_闭合_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy_闭合_b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,10 +195,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -484,26 +484,26 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
     </row>
     <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -513,34 +513,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -551,34 +551,34 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
